--- a/ipa文件plist/wechat.xlsx
+++ b/ipa文件plist/wechat.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>姓名（英文）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,11 +77,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>http://enterapp.sunlands.com/ios/wechat/wechat.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
+    <t>http://enterapp.sunlands.com/ios/wechat/wechat.ipa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chen sun（主账号）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://enterapp.sunlands.com/ios/wechat/chensun/wechat.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://enterapp.sunlands.com/ios/wechat/chensun/wechat.ipa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -89,7 +109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -123,6 +143,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -147,7 +175,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -161,25 +189,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="17"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="18">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -509,90 +550,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" customWidth="1"/>
-    <col min="5" max="5" width="63.6640625" customWidth="1"/>
-    <col min="6" max="6" width="51" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="6" max="6" width="63.6640625" customWidth="1"/>
+    <col min="7" max="7" width="64" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="41" customHeight="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="41" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" ht="40" customHeight="1">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="G2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="5">
+        <v>43186</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="40" customHeight="1">
-      <c r="A2" t="s">
+    <row r="3" spans="1:10" ht="40" customHeight="1">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="2">
-        <v>43186</v>
+      <c r="J3" s="2">
+        <v>43187</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="35" customHeight="1"/>
-    <row r="4" spans="1:9" ht="39" customHeight="1"/>
-    <row r="5" spans="1:9" ht="42" customHeight="1"/>
-    <row r="6" spans="1:9" ht="44" customHeight="1"/>
-    <row r="7" spans="1:9" ht="36" customHeight="1"/>
-    <row r="8" spans="1:9" ht="44" customHeight="1"/>
-    <row r="9" spans="1:9" ht="43" customHeight="1"/>
-    <row r="10" spans="1:9" ht="39" customHeight="1"/>
+    <row r="4" spans="1:10" ht="39" customHeight="1">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="42" customHeight="1"/>
+    <row r="6" spans="1:10" ht="44" customHeight="1"/>
+    <row r="7" spans="1:10" ht="36" customHeight="1"/>
+    <row r="8" spans="1:10" ht="44" customHeight="1"/>
+    <row r="9" spans="1:10" ht="43" customHeight="1"/>
+    <row r="10" spans="1:10" ht="39" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/ipa文件plist/wechat.xlsx
+++ b/ipa文件plist/wechat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="2100" windowWidth="25600" windowHeight="14600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
   <si>
     <t>姓名（英文）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,15 +93,197 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>http://enterapp.sunlands.com/ios/wechat/chensun/wechat.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>AppleD2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yunfei ma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yunfei ma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨丘利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨丘利 二向箔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3251729989@qq.com </t>
+  </si>
+  <si>
+    <t>http://enterapp.sunlands.com/ios/wechat/yunfeima/wechat.ipa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://enterapp.sunlands.com/ios/wechat/yunfeima/wechat.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hailong chen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://enterapp.sunlands.com/ios/wechat/hailongchen/wechat.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>http://enterapp.sunlands.com/ios/wechat/chensun/wechat.ipa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>序号</t>
+    <t>http://enterapp.sunlands.com/ios/wechat/hailongchen/wechat.ipa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二向箔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3251390274@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已用设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>houhua lin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马尔斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imricozaxzt@zoho.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouHL4376</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>houhua lin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://enterapp.sunlands.com/ios/wechat/houhualin/wechat.ipa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://enterapp.sunlands.com/ios/wechat/houhualin/wechat.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HuCW7316</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二向箔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chrystllekagssea@zoho.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hucehng wen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://enterapp.sunlands.com/ios/wechat/hucehngwen/wechat.ipa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://enterapp.sunlands.com/ios/wechat/hucehngwen/wechat.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>galbrwcuayiuu@zoho.com</t>
+  </si>
+  <si>
+    <t>YuBT7580</t>
+  </si>
+  <si>
+    <t>二向箔23+(35墨丘利)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baotai yu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://enterapp.sunlands.com/ios/wechat/baotaiyu/wechat.ipa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://enterapp.sunlands.com/ios/wechat/baotaiyu/wechat.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cassidypphvfuia@zoho.com</t>
+  </si>
+  <si>
+    <t>LiZP8991</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36（4.20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lizhi peng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://enterapp.sunlands.com/ios/wechat/lizhipeng/wechat.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://enterapp.sunlands.com/ios/wechat/lizhipeng/wechat.ipa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wanghong dan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metamokypqc@zoho.com</t>
+  </si>
+  <si>
+    <t>DanWH2946</t>
+  </si>
+  <si>
+    <t>http://enterapp.sunlands.com/ios/wechat/wanghongdan/wechat.ipa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://enterapp.sunlands.com/ios/wechat/wanghongdan/wechat.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,7 +357,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -194,6 +376,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -203,7 +411,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="44">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -221,6 +429,32 @@
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -550,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -567,11 +801,12 @@
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="16.5" customWidth="1"/>
     <col min="10" max="10" width="19.33203125" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="41" customHeight="1">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="41" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -600,8 +835,11 @@
       <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" ht="40" customHeight="1">
+    <row r="2" spans="1:15" s="4" customFormat="1" ht="40" customHeight="1">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -633,7 +871,7 @@
         <v>43186</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="40" customHeight="1">
+    <row r="3" spans="1:15" ht="40" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -650,10 +888,10 @@
         <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
@@ -664,23 +902,345 @@
       <c r="J3" s="2">
         <v>43187</v>
       </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3">
+        <v>86</v>
+      </c>
+      <c r="M3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3">
+        <v>86</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="39" customHeight="1">
+    <row r="4" spans="1:15" ht="39" customHeight="1">
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2">
+        <v>43198</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4">
+        <v>64</v>
+      </c>
+      <c r="M4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="4">
+        <v>100</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" ht="42" customHeight="1"/>
-    <row r="6" spans="1:10" ht="44" customHeight="1"/>
-    <row r="7" spans="1:10" ht="36" customHeight="1"/>
-    <row r="8" spans="1:10" ht="44" customHeight="1"/>
-    <row r="9" spans="1:10" ht="43" customHeight="1"/>
-    <row r="10" spans="1:10" ht="39" customHeight="1"/>
+    <row r="5" spans="1:15" ht="42" customHeight="1">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2">
+        <v>43198</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5">
+        <v>59</v>
+      </c>
+      <c r="M5">
+        <v>41</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="44" customHeight="1">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2">
+        <v>43208</v>
+      </c>
+      <c r="K6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6">
+        <v>30</v>
+      </c>
+      <c r="O6" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="36" customHeight="1">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2">
+        <v>43209</v>
+      </c>
+      <c r="K7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7">
+        <v>100</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="44" customHeight="1">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="2">
+        <v>43209</v>
+      </c>
+      <c r="K8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8">
+        <v>58</v>
+      </c>
+      <c r="M8">
+        <v>17</v>
+      </c>
+      <c r="O8" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="43" customHeight="1">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="2">
+        <v>43210</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9">
+        <v>81</v>
+      </c>
+      <c r="M9">
+        <v>19</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="39" customHeight="1">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="2">
+        <v>43218</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>
     <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="G5" r:id="rId5"/>
+    <hyperlink ref="F6" r:id="rId6"/>
+    <hyperlink ref="G6" r:id="rId7" display="http://enterapp.sunlands.com/ios/wechat/hailongchen/wechat.ipa"/>
+    <hyperlink ref="F7" r:id="rId8"/>
+    <hyperlink ref="G7" r:id="rId9" display="http://enterapp.sunlands.com/ios/wechat/hailongchen/wechat.ipa"/>
+    <hyperlink ref="F8" r:id="rId10" display="http://enterapp.sunlands.com/ios/wechat/hucehngwen/wechat.html"/>
+    <hyperlink ref="G8" r:id="rId11"/>
+    <hyperlink ref="F9" r:id="rId12"/>
+    <hyperlink ref="G9" r:id="rId13" display="http://enterapp.sunlands.com/ios/wechat/baotaiyu/wechat.ipa"/>
+    <hyperlink ref="F10" r:id="rId14"/>
+    <hyperlink ref="G10" r:id="rId15" display="http://enterapp.sunlands.com/ios/wechat/baotaiyu/wechat.ipa"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
